--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2017.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2017.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.001*"exchange" + 0.001*"foreign" + 0.001*"rate" + 0.001*"arrangement" + 0.000*"country" + 0.000*"currency" + 0.000*"imf" + 0.000*"market" + 0.000*"bank" + 0.000*"report"</t>
-  </si>
-  <si>
-    <t>0.001*"exchange" + 0.001*"foreign" + 0.001*"rate" + 0.001*"arrangement" + 0.001*"country" + 0.001*"monetary" + 0.001*"bank" + 0.001*"currency" + 0.001*"measure" + 0.001*"transaction"</t>
-  </si>
-  <si>
-    <t>0.010*"exchange" + 0.005*"rate" + 0.005*"foreign" + 0.004*"arrangement" + 0.004*"country" + 0.003*"currency" + 0.003*"monetary" + 0.003*"market" + 0.003*"transaction" + 0.003*"article"</t>
-  </si>
-  <si>
-    <t>0.002*"exchange" + 0.001*"rate" + 0.001*"foreign" + 0.001*"country" + 0.001*"arrangement" + 0.001*"measure" + 0.001*"bank" + 0.001*"transaction" + 0.001*"fund" + 0.001*"market"</t>
-  </si>
-  <si>
-    <t>0.032*"exchange" + 0.017*"foreign" + 0.017*"rate" + 0.014*"country" + 0.012*"arrangement" + 0.011*"monetary" + 0.011*"transaction" + 0.010*"currency" + 0.010*"bank" + 0.009*"fund"</t>
+    <t>0.038*"measure" + 0.022*"country" + 0.017*"monetary" + 0.016*"target" + 0.014*"change" + 0.014*"policy" + 0.014*"ease" + 0.011*"number" + 0.011*"capital" + 0.010*"table"</t>
+  </si>
+  <si>
+    <t>0.033*"foreign" + 0.023*"limit" + 0.018*"exchange" + 0.018*"bank" + 0.017*"abroad" + 0.016*"nonresident" + 0.015*"resident" + 0.014*"currency" + 0.014*"transfer" + 0.013*"restriction"</t>
+  </si>
+  <si>
+    <t>0.058*"exchange" + 0.029*"foreign" + 0.024*"rate" + 0.019*"currency" + 0.018*"payment" + 0.016*"import" + 0.014*"percent" + 0.014*"restriction" + 0.013*"transaction" + 0.010*"use"</t>
+  </si>
+  <si>
+    <t>0.052*"exchange" + 0.044*"rate" + 0.043*"arrangement" + 0.029*"country" + 0.020*"transaction" + 0.018*"market" + 0.014*"report" + 0.014*"peg" + 0.012*"article" + 0.011*"payment"</t>
+  </si>
+  <si>
+    <t>0.044*"fund" + 0.042*"monetary" + 0.040*"international" + 0.021*"control" + 0.017*"imf" + 0.017*"investment" + 0.017*"staff" + 0.016*"oc" + 0.016*"tober" + 0.014*"state"</t>
   </si>
 </sst>
 </file>
